--- a/data/536/IDSE/JKSE Composite Index - Daily.xlsx
+++ b/data/536/IDSE/JKSE Composite Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:MZB2"/>
+  <dimension ref="A1:MZE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47684,15 +47684,30 @@
       </c>
       <c r="MYZ1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-04</t>
+        </is>
+      </c>
+      <c r="MZA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-05</t>
+        </is>
+      </c>
+      <c r="MZB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-06</t>
+        </is>
+      </c>
+      <c r="MZC1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="MZA1" s="1" t="inlineStr">
+      <c r="MZD1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="MZB1" s="1" t="inlineStr">
+      <c r="MZE1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -74872,19 +74887,28 @@
         <v>7071.44</v>
       </c>
       <c r="MYY2" t="n">
-        <v>7053.96</v>
-      </c>
-      <c r="MYZ2" t="inlineStr">
+        <v>7078.76</v>
+      </c>
+      <c r="MYZ2" t="n">
+        <v>7116.22</v>
+      </c>
+      <c r="MZA2" t="n">
+        <v>7148.3</v>
+      </c>
+      <c r="MZB2" t="n">
+        <v>7139.89</v>
+      </c>
+      <c r="MZC2" t="inlineStr">
         <is>
           <t>JKSE</t>
         </is>
       </c>
-      <c r="MZA2" t="inlineStr">
+      <c r="MZD2" t="inlineStr">
         <is>
           <t>Jakarta Stock Exchange Composite Index, Close Price</t>
         </is>
       </c>
-      <c r="MZB2" t="inlineStr">
+      <c r="MZE2" t="inlineStr">
         <is>
           <t>Index: 1982=100</t>
         </is>
